--- a/UseCase/The function of button.xlsx
+++ b/UseCase/The function of button.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\FileXmind\UseCase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="The function of button" sheetId="1" r:id="rId1"/>
-    <sheet name="Tạo tài khoản" sheetId="2" r:id="rId2"/>
+    <sheet name="1.Tạo tài khoản" sheetId="2" r:id="rId2"/>
     <sheet name="Bố trí các nút" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
   <si>
     <t>tên nút</t>
   </si>
@@ -396,6 +401,96 @@
   </si>
   <si>
     <t>đảo ngược di chuyển của camera theo cử chỉ vuốt</t>
+  </si>
+  <si>
+    <t>Xác nhận lại mật khẩu</t>
+  </si>
+  <si>
+    <t>Nhập lại mật khẩu</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Điền email đăng ký</t>
+  </si>
+  <si>
+    <t>Nội dung nhập liệu</t>
+  </si>
+  <si>
+    <t>Nội dung Test</t>
+  </si>
+  <si>
+    <t>Kết quả mong muốn</t>
+  </si>
+  <si>
+    <t>Nhập nội dung tên tài khoản mình muốn tạo</t>
+  </si>
+  <si>
+    <t>Nhập nội dung mật khẩu mình muốn tạo</t>
+  </si>
+  <si>
+    <t>Nhập lại nội dung mật khẩu mình muốn tạo</t>
+  </si>
+  <si>
+    <t>Nhập lại nội dung email mình muốn tạo</t>
+  </si>
+  <si>
+    <t>Nhập email có cả ký tự @ cho mail</t>
+  </si>
+  <si>
+    <t>Sau khi điền đủ thông tin</t>
+  </si>
+  <si>
+    <t>Server trả kết quả và chuyển vào game</t>
+  </si>
+  <si>
+    <t>Có mail gửi về Email đã đăng ký</t>
+  </si>
+  <si>
+    <t>Nhập liệu từng ô</t>
+  </si>
+  <si>
+    <t>Nhập đầy đủ từng ô</t>
+  </si>
+  <si>
+    <t>Nhập chỉ vài ô =&gt; Thông báo tình trạng nhập chưa hết các thông tin</t>
+  </si>
+  <si>
+    <t>Server bắt đăng ký lại nếu có tên tài khoản hoặc email đã được dùng để đăng ký</t>
+  </si>
+  <si>
+    <t>Trường hợp nhập đúng</t>
+  </si>
+  <si>
+    <t>Trường hợp sai</t>
+  </si>
+  <si>
+    <t>Kết Quả Test</t>
+  </si>
+  <si>
+    <t>Không sử dụng ký tự đặc biệt. Chỉ nội dung không có dấu</t>
+  </si>
+  <si>
+    <t>Nhấn Đăng Ký</t>
+  </si>
+  <si>
+    <t>Nhấn Đăng Ký =&gt; Server kiểm tra việc đăng ký nhưng không trả kết quả, không chuyển vào game, không thông báo tài khoản đã sử dụng =&gt; nguyên nhân: Kiếm tra tình trạng kết nối mạng(ngoài trường hợp này =&gt; lỗi game)</t>
+  </si>
+  <si>
+    <t>Nhấn Hủy =&gt; Không quay về màn hình đăng nhập =&gt; lỗi game</t>
+  </si>
+  <si>
+    <t>Server kiểm tra việc đăng ký</t>
+  </si>
+  <si>
+    <t>Nhấn Hủy</t>
+  </si>
+  <si>
+    <t>Quay về màn hình đăng nhập</t>
+  </si>
+  <si>
+    <t>Không có mail gửi về Email đã đăng ký</t>
   </si>
 </sst>
 </file>
@@ -434,10 +529,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,6 +543,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -463,8 +561,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419848</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1639048</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19451</xdr:rowOff>
     </xdr:to>
@@ -638,7 +736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,7 +771,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -897,12 +995,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -967,12 +1065,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -1094,20 +1192,20 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
@@ -1126,12 +1224,12 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
@@ -1158,12 +1256,12 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
@@ -1228,12 +1326,12 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
@@ -1255,12 +1353,12 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
@@ -1287,12 +1385,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
@@ -1335,12 +1433,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
@@ -1409,32 +1507,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A18:B19"/>
+  <dimension ref="A17:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
